--- a/3高阶培训-代码/群发.xlsx
+++ b/3高阶培训-代码/群发.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\3微信QQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\UiPath\UiPath_Github\3高阶培训-代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D471B3-646E-4A60-82EF-6A90B5365BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB390C5-731E-407C-B113-74BE1260CF4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2520" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>独立寒秋，湘江北去，橘子洲头。</t>
   </si>
   <si>
-    <t>看万山红遍，层林尽染；</t>
-  </si>
-  <si>
     <t>漫江碧透，百舸争流。</t>
   </si>
   <si>
@@ -66,6 +63,10 @@
   </si>
   <si>
     <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看万山红遍，层林尽染。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -412,10 +415,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -431,7 +434,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -439,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -447,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -455,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -463,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -471,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -479,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -487,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -495,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
